--- a/doc/thesis/pictures/resultate/loesung1/ringing/sts.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/ringing/sts.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Average Line Size (Bytes)</t>
   </si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>PCA+DCT</t>
+  </si>
+  <si>
+    <t>helper line</t>
   </si>
 </sst>
 </file>
@@ -146,10 +152,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$20</c:f>
+              <c:f>Tabelle1!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>64.1933333333333</c:v>
                 </c:pt>
@@ -176,10 +182,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$17</c:f>
+              <c:f>Tabelle1!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>95.946459930203403</c:v>
                 </c:pt>
@@ -246,10 +252,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$20</c:f>
+              <c:f>Tabelle1!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>55.377499999999998</c:v>
                 </c:pt>
@@ -276,10 +282,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$21</c:f>
+              <c:f>Tabelle1!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>97.265641098785196</c:v>
                 </c:pt>
@@ -321,7 +327,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -346,10 +352,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$3:$G$20</c:f>
+              <c:f>Tabelle1!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>67.915000000000006</c:v>
                 </c:pt>
@@ -376,10 +382,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$29</c:f>
+              <c:f>Tabelle1!$H$3:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>98.625898658508305</c:v>
                 </c:pt>
@@ -421,7 +427,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -446,10 +452,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$3:$J$20</c:f>
+              <c:f>Tabelle1!$J$3:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>67.480833333333294</c:v>
                 </c:pt>
@@ -500,6 +506,65 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>93.156487796177402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Tabelle1!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>helper line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$AA$3:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Tabelle1!$AB$3:$AB$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281672312"/>
-        <c:axId val="281669176"/>
+        <c:axId val="443833952"/>
+        <c:axId val="443833560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281672312"/>
+        <c:axId val="443833952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,14 +705,16 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281669176"/>
+        <c:crossAx val="443833560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281669176"/>
+        <c:axId val="443833560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="85"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -766,7 +833,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281672312"/>
+        <c:crossAx val="443833952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,6 +847,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1407,21 +1478,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1197427</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>898073</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1436,6 +1509,221 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Ableitung</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>PCA+Ableitung</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>DCT</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>PCA+DCT</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="AA2" t="str">
+            <v>helper line</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>64.1933333333333</v>
+          </cell>
+          <cell r="B3">
+            <v>97.580677991476406</v>
+          </cell>
+          <cell r="D3">
+            <v>80.186666666666696</v>
+          </cell>
+          <cell r="E3">
+            <v>96.680972269498696</v>
+          </cell>
+          <cell r="G3">
+            <v>67.917500000000004</v>
+          </cell>
+          <cell r="H3">
+            <v>97.284207037861293</v>
+          </cell>
+          <cell r="J3">
+            <v>67.48</v>
+          </cell>
+          <cell r="K3">
+            <v>96.884353999435604</v>
+          </cell>
+          <cell r="AA3">
+            <v>1</v>
+          </cell>
+          <cell r="AB3">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>53.4508333333333</v>
+          </cell>
+          <cell r="B4">
+            <v>93.8997047898863</v>
+          </cell>
+          <cell r="D4">
+            <v>66.477500000000006</v>
+          </cell>
+          <cell r="E4">
+            <v>94.031743153148099</v>
+          </cell>
+          <cell r="G4">
+            <v>56.247500000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>94.388376259130993</v>
+          </cell>
+          <cell r="J4">
+            <v>63.331666666666699</v>
+          </cell>
+          <cell r="K4">
+            <v>95.541914133930604</v>
+          </cell>
+          <cell r="AA4">
+            <v>80</v>
+          </cell>
+          <cell r="AB4">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>46.7</v>
+          </cell>
+          <cell r="B5">
+            <v>91.476639357105995</v>
+          </cell>
+          <cell r="D5">
+            <v>59.6308333333333</v>
+          </cell>
+          <cell r="E5">
+            <v>92.025860164063303</v>
+          </cell>
+          <cell r="G5">
+            <v>50.4433333333333</v>
+          </cell>
+          <cell r="H5">
+            <v>92.225110124823104</v>
+          </cell>
+          <cell r="J5">
+            <v>60.335000000000001</v>
+          </cell>
+          <cell r="K5">
+            <v>94.556093020538896</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42.18</v>
+          </cell>
+          <cell r="B6">
+            <v>89.513103354817105</v>
+          </cell>
+          <cell r="D6">
+            <v>55.377499999999998</v>
+          </cell>
+          <cell r="E6">
+            <v>90.359373454608004</v>
+          </cell>
+          <cell r="G6">
+            <v>46.183333333333302</v>
+          </cell>
+          <cell r="H6">
+            <v>91.007916214275696</v>
+          </cell>
+          <cell r="J6">
+            <v>58.239166666666698</v>
+          </cell>
+          <cell r="K6">
+            <v>93.507228416431602</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>38.8333333333333</v>
+          </cell>
+          <cell r="B7">
+            <v>87.881745344926003</v>
+          </cell>
+          <cell r="D7">
+            <v>52.402500000000003</v>
+          </cell>
+          <cell r="E7">
+            <v>89.076778628707302</v>
+          </cell>
+          <cell r="G7">
+            <v>43.309166666666698</v>
+          </cell>
+          <cell r="H7">
+            <v>90.162608536690698</v>
+          </cell>
+          <cell r="J7">
+            <v>56.44</v>
+          </cell>
+          <cell r="K7">
+            <v>92.481216198479004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>36.274999999999999</v>
+          </cell>
+          <cell r="B8">
+            <v>86.480785712746993</v>
+          </cell>
+          <cell r="G8">
+            <v>41.235833333333296</v>
+          </cell>
+          <cell r="H8">
+            <v>89.473962680622407</v>
+          </cell>
+          <cell r="J8">
+            <v>54.866666666666703</v>
+          </cell>
+          <cell r="K8">
+            <v>91.726654154870204</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>34.1191666666667</v>
+          </cell>
+          <cell r="B9">
+            <v>85.404029977935906</v>
+          </cell>
+          <cell r="G9">
+            <v>39.472499999999997</v>
+          </cell>
+          <cell r="H9">
+            <v>88.974748867090099</v>
+          </cell>
+          <cell r="J9">
+            <v>53.603333333333303</v>
+          </cell>
+          <cell r="K9">
+            <v>91.194540237158606</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,25 +2013,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1782,8 +2070,11 @@
       <c r="K2" t="s">
         <v>1</v>
       </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64.1933333333333</v>
       </c>
@@ -1808,8 +2099,14 @@
       <c r="K3">
         <v>96.675381815746107</v>
       </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.452500000000001</v>
       </c>
@@ -1834,8 +2131,14 @@
       <c r="K4">
         <v>95.860646282487096</v>
       </c>
+      <c r="AA4">
+        <v>70</v>
+      </c>
+      <c r="AB4">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.815833333333302</v>
       </c>
@@ -1861,7 +2164,7 @@
         <v>95.190732498248707</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42.18</v>
       </c>
@@ -1887,7 +2190,7 @@
         <v>94.545495132642102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38.83</v>
       </c>
@@ -1913,7 +2216,7 @@
         <v>94.043512033575794</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36.271666666666697</v>
       </c>
@@ -1939,7 +2242,7 @@
         <v>93.625982300714</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34.1191666666667</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung1/ringing/sts.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/ringing/sts.xlsx
@@ -579,11 +579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443833952"/>
-        <c:axId val="443833560"/>
+        <c:axId val="213354776"/>
+        <c:axId val="213355168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443833952"/>
+        <c:axId val="213354776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,10 +612,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -623,16 +620,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -654,10 +663,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -692,10 +698,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -705,12 +708,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443833560"/>
+        <c:crossAx val="213355168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443833560"/>
+        <c:axId val="213355168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -741,10 +744,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -752,15 +752,27 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>PSNR-HVS-M</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800" baseline="0"/>
+                  <a:rPr lang="de-CH" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> (dB</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>)</a:t>
                 </a:r>
               </a:p>
@@ -782,10 +794,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -820,10 +829,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -833,7 +839,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443833952"/>
+        <c:crossAx val="213354776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -867,10 +873,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1523,15 +1526,6 @@
           <cell r="A1" t="str">
             <v>Ableitung</v>
           </cell>
-          <cell r="D1" t="str">
-            <v>PCA+Ableitung</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>DCT</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>PCA+DCT</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="AA2" t="str">
@@ -1539,30 +1533,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>64.1933333333333</v>
-          </cell>
-          <cell r="B3">
-            <v>97.580677991476406</v>
-          </cell>
-          <cell r="D3">
-            <v>80.186666666666696</v>
-          </cell>
-          <cell r="E3">
-            <v>96.680972269498696</v>
-          </cell>
-          <cell r="G3">
-            <v>67.917500000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>97.284207037861293</v>
-          </cell>
-          <cell r="J3">
-            <v>67.48</v>
-          </cell>
-          <cell r="K3">
-            <v>96.884353999435604</v>
-          </cell>
           <cell r="AA3">
             <v>1</v>
           </cell>
@@ -1571,153 +1541,11 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>53.4508333333333</v>
-          </cell>
-          <cell r="B4">
-            <v>93.8997047898863</v>
-          </cell>
-          <cell r="D4">
-            <v>66.477500000000006</v>
-          </cell>
-          <cell r="E4">
-            <v>94.031743153148099</v>
-          </cell>
-          <cell r="G4">
-            <v>56.247500000000002</v>
-          </cell>
-          <cell r="H4">
-            <v>94.388376259130993</v>
-          </cell>
-          <cell r="J4">
-            <v>63.331666666666699</v>
-          </cell>
-          <cell r="K4">
-            <v>95.541914133930604</v>
-          </cell>
           <cell r="AA4">
             <v>80</v>
           </cell>
           <cell r="AB4">
             <v>95</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>46.7</v>
-          </cell>
-          <cell r="B5">
-            <v>91.476639357105995</v>
-          </cell>
-          <cell r="D5">
-            <v>59.6308333333333</v>
-          </cell>
-          <cell r="E5">
-            <v>92.025860164063303</v>
-          </cell>
-          <cell r="G5">
-            <v>50.4433333333333</v>
-          </cell>
-          <cell r="H5">
-            <v>92.225110124823104</v>
-          </cell>
-          <cell r="J5">
-            <v>60.335000000000001</v>
-          </cell>
-          <cell r="K5">
-            <v>94.556093020538896</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>42.18</v>
-          </cell>
-          <cell r="B6">
-            <v>89.513103354817105</v>
-          </cell>
-          <cell r="D6">
-            <v>55.377499999999998</v>
-          </cell>
-          <cell r="E6">
-            <v>90.359373454608004</v>
-          </cell>
-          <cell r="G6">
-            <v>46.183333333333302</v>
-          </cell>
-          <cell r="H6">
-            <v>91.007916214275696</v>
-          </cell>
-          <cell r="J6">
-            <v>58.239166666666698</v>
-          </cell>
-          <cell r="K6">
-            <v>93.507228416431602</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>38.8333333333333</v>
-          </cell>
-          <cell r="B7">
-            <v>87.881745344926003</v>
-          </cell>
-          <cell r="D7">
-            <v>52.402500000000003</v>
-          </cell>
-          <cell r="E7">
-            <v>89.076778628707302</v>
-          </cell>
-          <cell r="G7">
-            <v>43.309166666666698</v>
-          </cell>
-          <cell r="H7">
-            <v>90.162608536690698</v>
-          </cell>
-          <cell r="J7">
-            <v>56.44</v>
-          </cell>
-          <cell r="K7">
-            <v>92.481216198479004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>36.274999999999999</v>
-          </cell>
-          <cell r="B8">
-            <v>86.480785712746993</v>
-          </cell>
-          <cell r="G8">
-            <v>41.235833333333296</v>
-          </cell>
-          <cell r="H8">
-            <v>89.473962680622407</v>
-          </cell>
-          <cell r="J8">
-            <v>54.866666666666703</v>
-          </cell>
-          <cell r="K8">
-            <v>91.726654154870204</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>34.1191666666667</v>
-          </cell>
-          <cell r="B9">
-            <v>85.404029977935906</v>
-          </cell>
-          <cell r="G9">
-            <v>39.472499999999997</v>
-          </cell>
-          <cell r="H9">
-            <v>88.974748867090099</v>
-          </cell>
-          <cell r="J9">
-            <v>53.603333333333303</v>
-          </cell>
-          <cell r="K9">
-            <v>91.194540237158606</v>
           </cell>
         </row>
       </sheetData>
@@ -2016,7 +1844,7 @@
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
